--- a/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acolzi/Documents/_ablia/work/fascicoloSanitario/TEST/invio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740C4E7-740E-814A-839D-F94EA0CD9295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF34B443-C387-6543-BB6E-90CBBF4DA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="43920" windowHeight="28000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="526">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2020,12 +2020,6 @@
     <t>a monte in fase di refertazione. Il referto non è inviabile</t>
   </si>
   <si>
-    <t>dicom in realtà non è gestito . Fatto comunque test</t>
-  </si>
-  <si>
-    <t>controllo parametri obbligatori preventivo (certificati, alias, pwd, ecc). In caso di mancanza non viene effettuata nessuna chiamata. In caso di errore, viene evidenziato l'errore sul jwt</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -2044,16 +2038,7 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.c492c34a2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>la parte di procedure non viene gestita dallo studio. Non vengono effetthjatge diagnostiche invasive, chirurgiche ecc.</t>
-  </si>
-  <si>
-    <t>il testo da sforzo non viene effettuato/gestito</t>
-  </si>
-  <si>
-    <t>i test di ginecologia colposcopia non vengono effettuate/gestite</t>
-  </si>
-  <si>
-    <t>molte delle sezioni riguardano procedure non gestite</t>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2990,6 +2975,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3011,15 +3002,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3318,7 +3300,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4467,10 +4449,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I224" sqref="I224"/>
+      <selection pane="bottomRight" activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4514,12 +4496,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="75"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4540,14 +4522,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="75"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4568,12 +4550,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="81" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="83" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4595,12 +4577,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="75"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4621,8 +4603,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5671,9 +5653,7 @@
       <c r="K34" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="L34" s="34" t="s">
-        <v>520</v>
-      </c>
+      <c r="L34" s="34"/>
       <c r="M34" s="34" t="s">
         <v>87</v>
       </c>
@@ -5681,7 +5661,7 @@
         <v>87</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P34" s="34" t="s">
         <v>87</v>
@@ -5722,13 +5702,13 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
+      <c r="J35" s="34" t="s">
+        <v>525</v>
+      </c>
       <c r="K35" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="L35" s="34" t="s">
-        <v>520</v>
-      </c>
+      <c r="L35" s="34"/>
       <c r="M35" s="34" t="s">
         <v>87</v>
       </c>
@@ -5736,7 +5716,7 @@
         <v>87</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P35" s="34" t="s">
         <v>87</v>
@@ -5999,21 +5979,21 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
+      <c r="J42" s="34" t="s">
+        <v>307</v>
+      </c>
       <c r="K42" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="L42" s="34" t="s">
-        <v>520</v>
-      </c>
+      <c r="L42" s="34"/>
       <c r="M42" s="34" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N42" s="34" t="s">
         <v>87</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P42" s="34" t="s">
         <v>87</v>
@@ -6054,13 +6034,13 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="J43" s="34" t="s">
+        <v>525</v>
+      </c>
       <c r="K43" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="L43" s="34" t="s">
-        <v>520</v>
-      </c>
+      <c r="L43" s="34"/>
       <c r="M43" s="34" t="s">
         <v>87</v>
       </c>
@@ -6068,7 +6048,7 @@
         <v>87</v>
       </c>
       <c r="O43" s="34" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P43" s="34" t="s">
         <v>87</v>
@@ -6318,7 +6298,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="84">
+      <c r="A50" s="29">
         <v>47</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -6365,7 +6345,7 @@
         <v>87</v>
       </c>
       <c r="S50" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="T50" s="34"/>
       <c r="U50" s="35" t="s">
@@ -6377,7 +6357,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84">
+      <c r="A51" s="29">
         <v>48</v>
       </c>
       <c r="B51" s="30" t="s">
@@ -6424,7 +6404,7 @@
         <v>87</v>
       </c>
       <c r="S51" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="T51" s="34"/>
       <c r="U51" s="35" t="s">
@@ -10298,7 +10278,7 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="82">
+      <c r="A150" s="70">
         <v>147</v>
       </c>
       <c r="B150" s="30" t="s">
@@ -10317,23 +10297,19 @@
         <v>45579</v>
       </c>
       <c r="G150" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="I150" s="33" t="s">
         <v>524</v>
-      </c>
-      <c r="H150" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="I150" s="33" t="s">
-        <v>526</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K150" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="L150" s="34" t="s">
-        <v>527</v>
-      </c>
+      <c r="K150" s="34"/>
+      <c r="L150" s="34"/>
       <c r="M150" s="34"/>
       <c r="N150" s="34"/>
       <c r="O150" s="34"/>
@@ -10374,9 +10350,7 @@
       <c r="K151" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="L151" s="34" t="s">
-        <v>528</v>
-      </c>
+      <c r="L151" s="34"/>
       <c r="M151" s="34"/>
       <c r="N151" s="34"/>
       <c r="O151" s="34"/>
@@ -10417,9 +10391,7 @@
       <c r="K152" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="L152" s="34" t="s">
-        <v>529</v>
-      </c>
+      <c r="L152" s="34"/>
       <c r="M152" s="34"/>
       <c r="N152" s="34"/>
       <c r="O152" s="34"/>
@@ -10460,9 +10432,7 @@
       <c r="K153" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="L153" s="34" t="s">
-        <v>530</v>
-      </c>
+      <c r="L153" s="34"/>
       <c r="M153" s="34"/>
       <c r="N153" s="34"/>
       <c r="O153" s="34"/>
@@ -12257,11 +12227,21 @@
       <c r="E196" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="F196" s="32"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="34"/>
+      <c r="F196" s="43">
+        <v>45579</v>
+      </c>
+      <c r="G196" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="H196" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="I196" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="J196" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="K196" s="34"/>
       <c r="L196" s="34"/>
       <c r="M196" s="34"/>
@@ -13278,7 +13258,7 @@
       </c>
     </row>
     <row r="224" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="83">
+      <c r="A224" s="71">
         <v>446</v>
       </c>
       <c r="B224" s="59" t="s">
@@ -13309,9 +13289,7 @@
         <v>87</v>
       </c>
       <c r="K224" s="45"/>
-      <c r="L224" s="45" t="s">
-        <v>519</v>
-      </c>
+      <c r="L224" s="45"/>
       <c r="M224" s="45"/>
       <c r="N224" s="45"/>
       <c r="O224" s="45"/>
@@ -20254,6 +20232,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20511,28 +20510,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20549,29 +20552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acolzi/Documents/_ablia/work/fascicoloSanitario/TEST/invio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF34B443-C387-6543-BB6E-90CBBF4DA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF5D612-D33E-524D-B75B-8A17FB344D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="43920" windowHeight="28000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="526">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1978,15 +1978,6 @@
     <t>subject_application_version: 1.0</t>
   </si>
   <si>
-    <t>TS:2024-10-14 03:23:07.325</t>
-  </si>
-  <si>
-    <t>dbbd90963020cf81</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.427fd8f5875704945fd96fd3babb4cfc04e90227497dd39b254c63c9f5870923.4638559f87^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Impossibile pubblicare documento</t>
   </si>
   <si>
@@ -2029,16 +2020,25 @@
     <t>dopo la chiamata in timeout</t>
   </si>
   <si>
-    <t>TS:2024-10-14 10:03:10.679</t>
-  </si>
-  <si>
-    <t>ba23745d0a2b7046</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.c492c34a2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>e57291735636ee54</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.ba1db654d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>TS:2024-10-18 12:23:47.553</t>
+  </si>
+  <si>
+    <t>ed477b33d38c86f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.92e3e7af46f81fa14c27697748eab2e526ddc0d98c2bd8701f69b384b068e7d1.39826000c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>TS:2024-10-18 12:52:24.722</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3002,6 +3002,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4449,10 +4452,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J196" sqref="J196"/>
+      <selection pane="bottomRight" activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5661,7 +5664,7 @@
         <v>87</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P34" s="34" t="s">
         <v>87</v>
@@ -5673,7 +5676,7 @@
         <v>87</v>
       </c>
       <c r="S34" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T34" s="34"/>
       <c r="U34" s="35"/>
@@ -5703,7 +5706,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="34" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K35" s="34" t="s">
         <v>317</v>
@@ -5716,7 +5719,7 @@
         <v>87</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P35" s="34" t="s">
         <v>87</v>
@@ -5728,7 +5731,7 @@
         <v>87</v>
       </c>
       <c r="S35" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T35" s="34"/>
       <c r="U35" s="35"/>
@@ -5987,13 +5990,13 @@
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N42" s="34" t="s">
         <v>87</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P42" s="34" t="s">
         <v>87</v>
@@ -6005,7 +6008,7 @@
         <v>87</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
@@ -6035,7 +6038,7 @@
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="34" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K43" s="34" t="s">
         <v>317</v>
@@ -6048,7 +6051,7 @@
         <v>87</v>
       </c>
       <c r="O43" s="34" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P43" s="34" t="s">
         <v>87</v>
@@ -6060,7 +6063,7 @@
         <v>87</v>
       </c>
       <c r="S43" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
@@ -6317,7 +6320,7 @@
         <v>45579</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
@@ -6333,7 +6336,7 @@
         <v>87</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P50" s="34" t="s">
         <v>307</v>
@@ -6345,7 +6348,7 @@
         <v>87</v>
       </c>
       <c r="S50" s="34" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T50" s="34"/>
       <c r="U50" s="35" t="s">
@@ -6376,7 +6379,7 @@
         <v>45579</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
@@ -6392,7 +6395,7 @@
         <v>87</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P51" s="34" t="s">
         <v>307</v>
@@ -6404,7 +6407,7 @@
         <v>87</v>
       </c>
       <c r="S51" s="34" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T51" s="34"/>
       <c r="U51" s="35" t="s">
@@ -7417,7 +7420,7 @@
         <v>87</v>
       </c>
       <c r="O78" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P78" s="34" t="s">
         <v>307</v>
@@ -7429,7 +7432,7 @@
         <v>87</v>
       </c>
       <c r="S78" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T78" s="34"/>
       <c r="U78" s="35"/>
@@ -7472,7 +7475,7 @@
         <v>87</v>
       </c>
       <c r="O79" s="34" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P79" s="34" t="s">
         <v>307</v>
@@ -7484,7 +7487,7 @@
         <v>87</v>
       </c>
       <c r="S79" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T79" s="34"/>
       <c r="U79" s="35"/>
@@ -7527,7 +7530,7 @@
         <v>87</v>
       </c>
       <c r="O80" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P80" s="34" t="s">
         <v>307</v>
@@ -7539,7 +7542,7 @@
         <v>87</v>
       </c>
       <c r="S80" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T80" s="34"/>
       <c r="U80" s="35"/>
@@ -7582,7 +7585,7 @@
         <v>87</v>
       </c>
       <c r="O81" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P81" s="34" t="s">
         <v>307</v>
@@ -7594,7 +7597,7 @@
         <v>87</v>
       </c>
       <c r="S81" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T81" s="34"/>
       <c r="U81" s="35"/>
@@ -7637,7 +7640,7 @@
         <v>87</v>
       </c>
       <c r="O82" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P82" s="34" t="s">
         <v>307</v>
@@ -7649,7 +7652,7 @@
         <v>87</v>
       </c>
       <c r="S82" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T82" s="34"/>
       <c r="U82" s="35"/>
@@ -7692,7 +7695,7 @@
         <v>87</v>
       </c>
       <c r="O83" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P83" s="34" t="s">
         <v>307</v>
@@ -7704,7 +7707,7 @@
         <v>87</v>
       </c>
       <c r="S83" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T83" s="34"/>
       <c r="U83" s="35"/>
@@ -7747,7 +7750,7 @@
         <v>87</v>
       </c>
       <c r="O84" s="34" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P84" s="34" t="s">
         <v>307</v>
@@ -7759,7 +7762,7 @@
         <v>87</v>
       </c>
       <c r="S84" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T84" s="34"/>
       <c r="U84" s="35"/>
@@ -7802,7 +7805,7 @@
         <v>87</v>
       </c>
       <c r="O85" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P85" s="34" t="s">
         <v>307</v>
@@ -7814,7 +7817,7 @@
         <v>87</v>
       </c>
       <c r="S85" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T85" s="34"/>
       <c r="U85" s="35"/>
@@ -7857,7 +7860,7 @@
         <v>87</v>
       </c>
       <c r="O86" s="34" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P86" s="34" t="s">
         <v>307</v>
@@ -7869,7 +7872,7 @@
         <v>87</v>
       </c>
       <c r="S86" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T86" s="34"/>
       <c r="U86" s="35"/>
@@ -7912,7 +7915,7 @@
         <v>87</v>
       </c>
       <c r="O87" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P87" s="34" t="s">
         <v>87</v>
@@ -7924,7 +7927,7 @@
         <v>87</v>
       </c>
       <c r="S87" s="34" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="T87" s="34"/>
       <c r="U87" s="35"/>
@@ -7967,7 +7970,7 @@
         <v>87</v>
       </c>
       <c r="O88" s="34" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P88" s="34" t="s">
         <v>307</v>
@@ -7979,7 +7982,7 @@
         <v>87</v>
       </c>
       <c r="S88" s="34" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="T88" s="34"/>
       <c r="U88" s="35"/>
@@ -10278,7 +10281,7 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="70">
+      <c r="A150" s="84">
         <v>147</v>
       </c>
       <c r="B150" s="30" t="s">
@@ -10293,22 +10296,16 @@
       <c r="E150" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="F150" s="43">
-        <v>45579</v>
-      </c>
-      <c r="G150" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="H150" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="I150" s="33" t="s">
-        <v>524</v>
-      </c>
+      <c r="F150" s="43"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
       <c r="J150" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="K150" s="34"/>
+        <v>307</v>
+      </c>
+      <c r="K150" s="34" t="s">
+        <v>312</v>
+      </c>
       <c r="L150" s="34"/>
       <c r="M150" s="34"/>
       <c r="N150" s="34"/>
@@ -10481,7 +10478,7 @@
         <v>87</v>
       </c>
       <c r="O154" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P154" s="34" t="s">
         <v>307</v>
@@ -10493,7 +10490,7 @@
         <v>87</v>
       </c>
       <c r="S154" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T154" s="34"/>
       <c r="U154" s="35"/>
@@ -10536,7 +10533,7 @@
         <v>87</v>
       </c>
       <c r="O155" s="34" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P155" s="34" t="s">
         <v>307</v>
@@ -10548,7 +10545,7 @@
         <v>87</v>
       </c>
       <c r="S155" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T155" s="34"/>
       <c r="U155" s="35"/>
@@ -10591,7 +10588,7 @@
         <v>87</v>
       </c>
       <c r="O156" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P156" s="34" t="s">
         <v>307</v>
@@ -10603,7 +10600,7 @@
         <v>87</v>
       </c>
       <c r="S156" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T156" s="34"/>
       <c r="U156" s="35"/>
@@ -10646,7 +10643,7 @@
         <v>87</v>
       </c>
       <c r="O157" s="34" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P157" s="34" t="s">
         <v>307</v>
@@ -10658,7 +10655,7 @@
         <v>87</v>
       </c>
       <c r="S157" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T157" s="34"/>
       <c r="U157" s="35"/>
@@ -10701,7 +10698,7 @@
         <v>87</v>
       </c>
       <c r="O158" s="34" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P158" s="34" t="s">
         <v>307</v>
@@ -10754,7 +10751,7 @@
         <v>87</v>
       </c>
       <c r="O159" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P159" s="34"/>
       <c r="Q159" s="34"/>
@@ -10928,7 +10925,7 @@
         <v>87</v>
       </c>
       <c r="O163" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P163" s="34" t="s">
         <v>307</v>
@@ -10940,7 +10937,7 @@
         <v>87</v>
       </c>
       <c r="S163" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T163" s="34"/>
       <c r="U163" s="35"/>
@@ -10983,7 +10980,7 @@
         <v>87</v>
       </c>
       <c r="O164" s="34" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P164" s="34" t="s">
         <v>307</v>
@@ -10995,7 +10992,7 @@
         <v>87</v>
       </c>
       <c r="S164" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T164" s="34"/>
       <c r="U164" s="35"/>
@@ -11079,7 +11076,7 @@
         <v>87</v>
       </c>
       <c r="O166" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P166" s="34" t="s">
         <v>87</v>
@@ -11091,7 +11088,7 @@
         <v>87</v>
       </c>
       <c r="S166" s="34" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="T166" s="34"/>
       <c r="U166" s="35"/>
@@ -11339,7 +11336,7 @@
         <v>87</v>
       </c>
       <c r="O172" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P172" s="34" t="s">
         <v>307</v>
@@ -11351,7 +11348,7 @@
         <v>87</v>
       </c>
       <c r="S172" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T172" s="34"/>
       <c r="U172" s="35"/>
@@ -12212,7 +12209,7 @@
       </c>
     </row>
     <row r="196" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="29">
+      <c r="A196" s="70">
         <v>374</v>
       </c>
       <c r="B196" s="30" t="s">
@@ -12228,16 +12225,16 @@
         <v>500</v>
       </c>
       <c r="F196" s="43">
-        <v>45579</v>
+        <v>45583</v>
       </c>
       <c r="G196" s="44" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="H196" s="44" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="I196" s="44" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -13274,16 +13271,16 @@
         <v>378</v>
       </c>
       <c r="F224" s="43">
-        <v>45579</v>
+        <v>45583</v>
       </c>
       <c r="G224" s="44" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="H224" s="44" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="I224" s="44" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="J224" s="45" t="s">
         <v>87</v>
@@ -20244,15 +20241,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20510,6 +20498,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
@@ -20528,14 +20525,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20552,4 +20541,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acolzi/Documents/_ablia/work/fascicoloSanitario/TEST/invio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF5D612-D33E-524D-B75B-8A17FB344D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFEA2D5-1617-124C-87A3-6871B690FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="43920" windowHeight="28000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2023,22 +2023,22 @@
     <t>no</t>
   </si>
   <si>
-    <t>e57291735636ee54</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.ba1db654d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>TS:2024-10-18 12:23:47.553</t>
-  </si>
-  <si>
-    <t>ed477b33d38c86f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.92e3e7af46f81fa14c27697748eab2e526ddc0d98c2bd8701f69b384b068e7d1.39826000c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>TS:2024-10-18 12:52:24.722</t>
+    <t>TS:2024-10-24 12:28:12.008</t>
+  </si>
+  <si>
+    <t>75b746a6522ed64d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.92e3e7af46f81fa14c27697748eab2e526ddc0d98c2bd8701f69b384b068e7d1.f0f500631a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>TS:2024-10-24 12:49:03.058</t>
+  </si>
+  <si>
+    <t>be83d7db6be44e24</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.2fec0e3cd3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3002,9 +3002,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4455,7 +4452,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I224" sqref="I224"/>
+      <selection pane="bottomRight" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10281,7 +10278,7 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="84">
+      <c r="A150" s="29">
         <v>147</v>
       </c>
       <c r="B150" s="30" t="s">
@@ -12225,16 +12222,16 @@
         <v>500</v>
       </c>
       <c r="F196" s="43">
-        <v>45583</v>
+        <v>45589</v>
       </c>
       <c r="G196" s="44" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H196" s="44" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="I196" s="44" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -13271,16 +13268,16 @@
         <v>378</v>
       </c>
       <c r="F224" s="43">
-        <v>45583</v>
+        <v>45589</v>
       </c>
       <c r="G224" s="44" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H224" s="44" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I224" s="44" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J224" s="45" t="s">
         <v>87</v>
@@ -20229,18 +20226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20498,6 +20483,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20508,23 +20505,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20543,6 +20523,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acolzi/Documents/_ablia/work/fascicoloSanitario/TEST/invio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFEA2D5-1617-124C-87A3-6871B690FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BCDEB7-69CC-064E-9E27-EDF705A40ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="43920" windowHeight="28000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2023,22 +2023,22 @@
     <t>no</t>
   </si>
   <si>
-    <t>TS:2024-10-24 12:28:12.008</t>
-  </si>
-  <si>
-    <t>75b746a6522ed64d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.92e3e7af46f81fa14c27697748eab2e526ddc0d98c2bd8701f69b384b068e7d1.f0f500631a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>TS:2024-10-24 12:49:03.058</t>
-  </si>
-  <si>
-    <t>be83d7db6be44e24</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.2fec0e3cd3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>ca065c14b1b61a19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.92e3e7af46f81fa14c27697748eab2e526ddc0d98c2bd8701f69b384b068e7d1.c16998f245^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-10-30 13:51:18.699</t>
+  </si>
+  <si>
+    <t>8bd579d6e451e1c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.924e1e7ba6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-10-30 13:56:08.58</t>
   </si>
 </sst>
 </file>
@@ -4452,7 +4452,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F196" sqref="F196"/>
+      <selection pane="bottomRight" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12222,16 +12222,16 @@
         <v>500</v>
       </c>
       <c r="F196" s="43">
-        <v>45589</v>
+        <v>45595</v>
       </c>
       <c r="G196" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="H196" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="H196" s="44" t="s">
+      <c r="I196" s="44" t="s">
         <v>524</v>
-      </c>
-      <c r="I196" s="44" t="s">
-        <v>525</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -13268,16 +13268,16 @@
         <v>378</v>
       </c>
       <c r="F224" s="43">
-        <v>45589</v>
+        <v>45595</v>
       </c>
       <c r="G224" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="H224" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="H224" s="44" t="s">
+      <c r="I224" s="44" t="s">
         <v>521</v>
-      </c>
-      <c r="I224" s="44" t="s">
-        <v>522</v>
       </c>
       <c r="J224" s="45" t="s">
         <v>87</v>
@@ -20226,6 +20226,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20483,42 +20504,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20541,9 +20530,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#ABLIASRLXX/ABLIA/STAN/1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acolzi/Documents/_ablia/work/fascicoloSanitario/TEST/invio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BCDEB7-69CC-064E-9E27-EDF705A40ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0E283-301F-EB43-A15D-2603F37153CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="43920" windowHeight="28000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2023,22 +2023,22 @@
     <t>no</t>
   </si>
   <si>
-    <t>ca065c14b1b61a19</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.92e3e7af46f81fa14c27697748eab2e526ddc0d98c2bd8701f69b384b068e7d1.c16998f245^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-10-30 13:51:18.699</t>
-  </si>
-  <si>
-    <t>8bd579d6e451e1c1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.924e1e7ba6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-10-30 13:56:08.58</t>
+    <t>34f04bf8eb6d811f</t>
+  </si>
+  <si>
+    <t>2024-11-07 20:56:17.744</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.02248abcd69c9821eccd8250b48a852a24b199041b6a0ffa4e89425f6dad315b.50c9a55900^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-11-07 20:54:25.721</t>
+  </si>
+  <si>
+    <t>b5d9becae32fc15d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.92e3e7af46f81fa14c27697748eab2e526ddc0d98c2bd8701f69b384b068e7d1.b276ab4648^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4452,7 +4452,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G196" sqref="G196"/>
+      <selection pane="bottomRight" activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12222,16 +12222,16 @@
         <v>500</v>
       </c>
       <c r="F196" s="43">
-        <v>45595</v>
+        <v>45603</v>
       </c>
       <c r="G196" s="44" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H196" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I196" s="44" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -13268,16 +13268,16 @@
         <v>378</v>
       </c>
       <c r="F224" s="43">
-        <v>45595</v>
+        <v>45603</v>
       </c>
       <c r="G224" s="44" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H224" s="44" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="I224" s="44" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J224" s="45" t="s">
         <v>87</v>
@@ -20226,27 +20226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20504,10 +20483,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20530,20 +20541,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>